--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685263.234010492</v>
+        <v>1682886.607063127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.19039300819497</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>148.6312137402718</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.23930645615751</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>15.53666026284</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>85.4468381106784</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>54.89924545572243</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>101.6689309269826</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>85.36610313819149</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>233.8447291789227</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31.77276740364141</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542878</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483601</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465703</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756227</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>241.143581509382</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.08134457786435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>11.77415159213969</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>106.7475924760369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>74.99129529219111</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428347</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428298</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.784773191979</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.784773191979</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.784773191979</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2412.206789268569</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1685.972375737374</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.784773191979</v>
+        <v>1295.833043761563</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>483.0441129489474</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>281.0354892056661</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>132.2965910691723</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1620.752523849407</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1331.634186353245</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1076.949698147358</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>787.5325281103969</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056661</v>
+        <v>559.5429772123796</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056661</v>
+        <v>338.7503980688494</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.87310169792</v>
+        <v>1287.435190625614</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>918.4726736852019</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>560.2069750784515</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>560.2069750784515</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>149.2210702888439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>137.5567240535369</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2506.885545111547</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2253.304484375727</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>1922.241597032156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.472941762042</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="X5" t="n">
-        <v>1569.472941762042</v>
+        <v>2064.174362665547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1569.472941762042</v>
+        <v>1674.035030689735</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143487</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458206</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>536.0825277700245</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1550.217733066223</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.533244860336</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>638.7784175952595</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1214.090290083874</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.090290083874</v>
+        <v>1043.171881158732</v>
       </c>
       <c r="D8" t="n">
-        <v>1214.090290083874</v>
+        <v>684.9061825519814</v>
       </c>
       <c r="E8" t="n">
-        <v>1214.090290083874</v>
+        <v>299.1179299537371</v>
       </c>
       <c r="F8" t="n">
-        <v>803.1043852942666</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>387.3996350185555</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>83.34049101612578</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800314</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320766</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320766</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059686</v>
+        <v>2188.873570139077</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083874</v>
+        <v>1798.734238163265</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>716.59835516575</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>547.6621722378432</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>397.5455328255074</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800314</v>
+        <v>249.6324392431143</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800314</v>
+        <v>102.7424917452039</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800314</v>
@@ -4996,16 +4996,16 @@
         <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>898.2468199959898</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,16 +5057,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871868</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892764</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041564</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958739</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.853600740073</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121661</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121661</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121661</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121661</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270461</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648821</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.28419561186</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138429</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703128</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270456</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>60.50016306149612</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780631</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.365205742064089e-14</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260413</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.89260457060122</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>45.04089287986216</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>125.534128440348</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>136.8413214260727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>145.3900508477911</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>73.62417772602124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194039</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194088</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.620387699105777e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707349</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.42449670735</v>
-      </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707371</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707371</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707314</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984475</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805922.1324356048</v>
+        <v>-805922.1324356054</v>
       </c>
       <c r="C6" t="n">
-        <v>308829.6511403145</v>
+        <v>308829.6511403146</v>
       </c>
       <c r="D6" t="n">
-        <v>308829.6511403144</v>
+        <v>308829.6511403146</v>
       </c>
       <c r="E6" t="n">
-        <v>-90860.10614665646</v>
+        <v>-90894.8440720918</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778892</v>
+        <v>416590.597552454</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524534</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778894</v>
+        <v>416590.5975524539</v>
       </c>
       <c r="J6" t="n">
-        <v>249020.1576679067</v>
+        <v>248985.4197424712</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778893</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="L6" t="n">
-        <v>416625.3354778895</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="M6" t="n">
-        <v>284018.0417489627</v>
+        <v>283983.3038235271</v>
       </c>
       <c r="N6" t="n">
-        <v>416625.3354778896</v>
+        <v>416590.5975524536</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.335477889</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.33547789</v>
+        <v>416590.5975524534</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175397</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241343</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7399770640668</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>179.1210447298631</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>24.55728874774307</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>205.2120357343719</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>215.571714451727</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>151.7589395245113</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>78.16304925495467</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>200.8610509830091</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>173.0313165627888</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>33.937145268829</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193754</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28068,7 +28068,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,22 +31437,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31461,22 +31461,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>247.087659304981</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.330954421548</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.4543240367771</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
